--- a/QB.xlsx
+++ b/QB.xlsx
@@ -606,7 +606,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -621,72 +621,72 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/QB.xlsx
+++ b/QB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Aaron Rodgers - GB</t>
   </si>
@@ -130,135 +130,6 @@
   </si>
   <si>
     <t>Ryan Fitzpatrick - TB</t>
-  </si>
-  <si>
-    <t>Nick Foles - PHI</t>
-  </si>
-  <si>
-    <t>Jacoby Brissett - IND</t>
-  </si>
-  <si>
-    <t>Teddy Bridgewater - NYJ</t>
-  </si>
-  <si>
-    <t>Nathan Peterman - BUF</t>
-  </si>
-  <si>
-    <t>DeShone Kizer - GB</t>
-  </si>
-  <si>
-    <t>Mason Rudolph - PIT</t>
-  </si>
-  <si>
-    <t>Brock Osweiler - MIA</t>
-  </si>
-  <si>
-    <t>Brian Hoyer - NE</t>
-  </si>
-  <si>
-    <t>C.J. Beathard - SF</t>
-  </si>
-  <si>
-    <t>Blaine Gabbert - TEN</t>
-  </si>
-  <si>
-    <t>Paxton Lynch - DEN</t>
-  </si>
-  <si>
-    <t>Cody Kessler - JAC</t>
-  </si>
-  <si>
-    <t>Trevor Siemian - MIN</t>
-  </si>
-  <si>
-    <t>Colt McCoy - WAS</t>
-  </si>
-  <si>
-    <t>Brandon Weeden - HOU</t>
-  </si>
-  <si>
-    <t>Sean Mannion - LAR</t>
-  </si>
-  <si>
-    <t>Chad Henne - KC</t>
-  </si>
-  <si>
-    <t>Tom Savage - NO</t>
-  </si>
-  <si>
-    <t>Chase Daniel - CHI</t>
-  </si>
-  <si>
-    <t>Matt Barkley - CIN</t>
-  </si>
-  <si>
-    <t>Drew Stanton - CLE</t>
-  </si>
-  <si>
-    <t>Matt Schaub - ATL</t>
-  </si>
-  <si>
-    <t>Davis Webb - NYG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colin Kaepernick - </t>
-  </si>
-  <si>
-    <t>Landry Jones - PIT</t>
-  </si>
-  <si>
-    <t>Connor Cook - OAK</t>
-  </si>
-  <si>
-    <t>Cardale Jones - LAC</t>
-  </si>
-  <si>
-    <t>Brett Hundley - GB</t>
-  </si>
-  <si>
-    <t>Austin Davis - SEA</t>
-  </si>
-  <si>
-    <t>Jake Rudock - DET</t>
-  </si>
-  <si>
-    <t>EJ Manuel - OAK</t>
-  </si>
-  <si>
-    <t>Geno Smith - LAC</t>
-  </si>
-  <si>
-    <t>Mike Glennon - ARI</t>
-  </si>
-  <si>
-    <t>Kyle Lauletta - NYG</t>
-  </si>
-  <si>
-    <t>Chad Kelly - DEN</t>
-  </si>
-  <si>
-    <t>Mike White - DAL</t>
-  </si>
-  <si>
-    <t>David Fales - MIA</t>
-  </si>
-  <si>
-    <t>Cooper Rush - DAL</t>
-  </si>
-  <si>
-    <t>Matt Cassel - DET</t>
-  </si>
-  <si>
-    <t>Taylor Heinicke - CAR</t>
-  </si>
-  <si>
-    <t>Luke Falk - TEN</t>
-  </si>
-  <si>
-    <t>Jeff Driskel - CIN</t>
-  </si>
-  <si>
-    <t>Ryan Griffin - TB</t>
   </si>
   <si>
     <t>Name</t>
@@ -600,18 +471,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,22 +504,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -802,221 +675,6 @@
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
